--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="Re98f3cc48f2d4a58"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="Rb83cd21ac02d4674"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="Rb83cd21ac02d4674"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="Rdc0a8fea7397418a"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="Rdc0a8fea7397418a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R119b510cde93419c"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R119b510cde93419c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R61ef50fc02fe4ae3"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -28,39 +28,39 @@
     <x:font>
       <x:b/>
       <x:sz val="12"/>
-      <x:color rgb="FFFFFF"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="12"/>
-      <x:color rgb="000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:sz val="12"/>
-      <x:color rgb="000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="12"/>
-      <x:color rgb="000000"/>
-      <x:name val="Aptos Narrow"/>
-    </x:font>
-    <x:font>
-      <x:b/>
-      <x:sz val="12"/>
-      <x:color rgb="000000"/>
+      <x:color rgb="FFFFFFFF"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Aptos Narrow"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="12"/>
+      <x:color rgb="FF000000"/>
       <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
-  <x:fills count="7">
+  <x:fills count="8">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
@@ -69,31 +69,37 @@
     </x:fill>
     <x:fill>
       <x:patternFill patternType="solid">
-        <x:fgColor rgb="2E75B6"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="F2F2F2"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="00FF00"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FFAA00"/>
-        <x:bgColor indexed="64"/>
-      </x:patternFill>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="solid">
-        <x:fgColor rgb="FF0000"/>
+        <x:fgColor rgb="FF2E75B6"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFF2F2F2"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FF00FF00"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFFFFFFF"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFFFAA00"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="FFFF0000"/>
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
@@ -142,9 +148,9 @@
     <x:xf fontId="1" fillId="2" borderId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <x:xf fontId="2" fillId="3" borderId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <x:xf fontId="3" fillId="4" borderId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <x:xf fontId="4" fillId="0" borderId="4" applyFont="1" applyFill="0" applyBorder="1"/>
-    <x:xf fontId="5" fillId="5" borderId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <x:xf fontId="6" fillId="6" borderId="6" applyFont="1" applyFill="1" applyBorder="1"/>
+    <x:xf fontId="4" fillId="5" borderId="4" applyFont="1" applyFill="1" applyBorder="1"/>
+    <x:xf fontId="5" fillId="6" borderId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <x:xf fontId="6" fillId="7" borderId="6" applyFont="1" applyFill="1" applyBorder="1"/>
   </x:cellXfs>
 </x:styleSheet>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R61ef50fc02fe4ae3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R3b9ff9e8ad5e4be8"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R3b9ff9e8ad5e4be8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R2619dc2c8b3447f1"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R2619dc2c8b3447f1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="Rd1d10e3cbf964cc9"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="Rd1d10e3cbf964cc9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="Rf7b8c8f545f94db6"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="Rf7b8c8f545f94db6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R0bdfd9ffab51459f"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R0bdfd9ffab51459f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R10345a33b5c1421c"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R10345a33b5c1421c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R07e7e849f18a461c"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R07e7e849f18a461c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R56da37ed371b4157"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R56da37ed371b4157"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R4e68e16ebd204e4e"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R4e68e16ebd204e4e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R3a0e04e62d9543c8"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R3a0e04e62d9543c8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R74f715a98fc0437d"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R74f715a98fc0437d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R54bcba0bb84f40f0"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R54bcba0bb84f40f0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R5d3def5323234f42"/>
   </x:sheets>
 </x:workbook>
 </file>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
@@ -5,8 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R5d3def5323234f42"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R0ac0538091a64445"/>
   </x:sheets>
+  <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
 </file>
 

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R0ac0538091a64445"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R4ee6769d58b54d03"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R4ee6769d58b54d03"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="Rcb3b250e3d53444a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="Rcb3b250e3d53444a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R8302dc31c69e4df4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R8302dc31c69e4df4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R78208c95aa0540f1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R78208c95aa0540f1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="Rec4555ab36a24e0a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="Rec4555ab36a24e0a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="Rf7916ad10d40427a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="Rf7916ad10d40427a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R620c9e40d54c4023"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R620c9e40d54c4023"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R845a288a0db64f54"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R845a288a0db64f54"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="Rc7a6feaeba134f66"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="Rc7a6feaeba134f66"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R1458c40516024759"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R1458c40516024759"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R0043a3c5b9c0479f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R0043a3c5b9c0479f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R1356e3dbdd51489b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R1356e3dbdd51489b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R0b8518959c4b4e6e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R0b8518959c4b4e6e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="Rc215f996f9494fc8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="Rc215f996f9494fc8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R6c2902a84679406f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R6c2902a84679406f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="Raba9c5b4c4de476a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="Raba9c5b4c4de476a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="Rb1df25c1a7de4369"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="Rb1df25c1a7de4369"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="Rafdc8454f58848eb"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="Rafdc8454f58848eb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="Rd87c766095b643ee"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="Rd87c766095b643ee"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R03058eb114bb4f81"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R03058eb114bb4f81"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R0481062392184a73"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R0481062392184a73"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R076345ded99a4b6c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R076345ded99a4b6c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="Rccd43908443b4d7d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="Rccd43908443b4d7d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="Rcae9f2dc04cc4d9d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="Rcae9f2dc04cc4d9d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="Rccff011edf53416c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="Rccff011edf53416c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R78ddb9be49374bb7"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/18_ComplexTable.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="R78ddb9be49374bb7"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ComplexTable" sheetId="1" r:id="Rd0dba085ff5c4f77"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
